--- a/Backup/Calculo dos resultados.xlsx
+++ b/Backup/Calculo dos resultados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeniffer.morais\Documents\TCC\api-youtube\Tabela de analise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeniffer.morais\Documents\TCC\api-youtube\Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F071D32-2DD1-421B-99E4-A509E2562B68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FBB563-FCC5-4BA6-A2A3-30FD95E0C075}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11505" xr2:uid="{EC6B8175-04BB-4CA9-9FDA-2245D127420A}"/>
   </bookViews>
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
-  <si>
-    <t>https://www,youtube,com/watch?v=pMPlngyWHLM</t>
-  </si>
-  <si>
-    <t>https://www,youtube,com/watch?v=PQzUj5Hd0jk</t>
-  </si>
-  <si>
-    <t>https://www,youtube,com/watch?v=shBkovJfWpk</t>
-  </si>
-  <si>
-    <t>https://www,youtube,com/watch?v=jtnLR8pA4YU</t>
-  </si>
-  <si>
-    <t>https://www,youtube,com/watch?v=-9Nafr7zdJs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iFYWrDMfVNo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>https://www.youtube.com/watch?v=YUeiAhpPMjQ</t>
   </si>
@@ -144,22 +126,6 @@
     <t>https://www.youtube.com/watch?v=FcrMEfjLxwg</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Total de vídeos: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>36</t>
-    </r>
-  </si>
-  <si>
     <t>Qnt Comentario</t>
   </si>
   <si>
@@ -187,20 +153,43 @@
     <t>Comentario com código (SIM=1)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Total: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>34</t>
-    </r>
+    <t>MÉDIA</t>
+  </si>
+  <si>
+    <t>MÁXIMO</t>
+  </si>
+  <si>
+    <t>MÍNIMO</t>
+  </si>
+  <si>
+    <t>DESVIO PADRÃO</t>
+  </si>
+  <si>
+    <t>Tristeza</t>
+  </si>
+  <si>
+    <t>Alegria</t>
+  </si>
+  <si>
+    <t>Medo</t>
+  </si>
+  <si>
+    <t>Aversao</t>
+  </si>
+  <si>
+    <t>Raiva</t>
+  </si>
+  <si>
+    <t>Pontuacao</t>
+  </si>
+  <si>
+    <t>Resumo</t>
+  </si>
+  <si>
+    <t>https://www.youtA2:A25ube.com/watch?v=iFYWrDMfVNo</t>
+  </si>
+  <si>
+    <t>Total de vídeos: 34</t>
   </si>
 </sst>
 </file>
@@ -208,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="171" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +220,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,15 +254,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -581,57 +582,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E71971D-2C63-441F-9D9F-C162B3F21611}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="0.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -645,25 +669,43 @@
       <c r="E2" s="4">
         <v>33296</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>8.3525000000000002E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.57783300000000004</v>
+      </c>
+      <c r="M2">
+        <v>3.3524999999999999E-2</v>
+      </c>
+      <c r="N2">
+        <v>2.6249999999999999E-2</v>
+      </c>
+      <c r="O2">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="P2">
+        <v>0.47633300000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -677,9 +719,6 @@
       <c r="E3" s="4">
         <v>758</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>5</v>
       </c>
@@ -692,10 +731,19 @@
       <c r="J3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="P3">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -724,10 +772,22 @@
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1.553E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.48320400000000002</v>
+      </c>
+      <c r="P4">
+        <v>0.47648699999999999</v>
+      </c>
+      <c r="Q4">
+        <v>0.54545500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -756,10 +816,31 @@
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.69597900000000001</v>
+      </c>
+      <c r="M5">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="O5">
+        <v>4.2750000000000003E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.63589600000000002</v>
+      </c>
+      <c r="Q5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -788,10 +869,28 @@
       <c r="J6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>1.8374999999999999E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.69481944444444399</v>
+      </c>
+      <c r="N6">
+        <v>1.8374999999999999E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.8374999999999999E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.68461111111111095</v>
+      </c>
+      <c r="Q6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -820,10 +919,22 @@
       <c r="J7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.38218750000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.32968750000000002</v>
+      </c>
+      <c r="Q7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -852,10 +963,28 @@
       <c r="J8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>4.8125000000000001E-2</v>
+      </c>
+      <c r="L8">
+        <v>0.63816666666666699</v>
+      </c>
+      <c r="N8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="O8">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="P8">
+        <v>0.58129166666666698</v>
+      </c>
+      <c r="Q8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -885,9 +1014,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -916,10 +1045,22 @@
       <c r="J10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>4.7656249999999997E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.44712499999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.39890625000000002</v>
+      </c>
+      <c r="Q10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -948,10 +1089,28 @@
       <c r="J11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L11">
+        <v>0.52087499999999998</v>
+      </c>
+      <c r="M11">
+        <v>2.3125E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.3125E-2</v>
+      </c>
+      <c r="P11">
+        <v>0.49162499999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -980,10 +1139,31 @@
       <c r="J12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>9.2083333333333295E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.66610416666666705</v>
+      </c>
+      <c r="M12">
+        <v>3.9375E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.6249999999999999E-2</v>
+      </c>
+      <c r="O12">
+        <v>3.1875000000000001E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.58668750000000003</v>
+      </c>
+      <c r="Q12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -997,9 +1177,6 @@
       <c r="E13" s="5">
         <v>24202</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>5</v>
       </c>
@@ -1012,10 +1189,31 @@
       <c r="J13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>7.2249999999999995E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.49319791666666701</v>
+      </c>
+      <c r="M13">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="N13">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="O13">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="P13">
+        <v>0.43544791666666699</v>
+      </c>
+      <c r="Q13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1029,9 +1227,6 @@
       <c r="E14" s="5">
         <v>15793</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
         <v>2</v>
       </c>
@@ -1044,10 +1239,19 @@
       <c r="J14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -1076,10 +1280,31 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0.11724999999999999</v>
+      </c>
+      <c r="L15">
+        <v>0.37729166666666702</v>
+      </c>
+      <c r="M15">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="N15">
+        <v>3.125E-2</v>
+      </c>
+      <c r="O15">
+        <v>6.5625000000000003E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.25520833333333298</v>
+      </c>
+      <c r="Q15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -1108,10 +1333,31 @@
       <c r="J16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>6.9441666666666693E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.69997541666666696</v>
+      </c>
+      <c r="M16">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N16">
+        <v>5.2850000000000001E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="P16">
+        <v>0.62490875000000001</v>
+      </c>
+      <c r="Q16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -1140,10 +1386,28 @@
       <c r="J17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>6.4312499999999995E-2</v>
+      </c>
+      <c r="L17">
+        <v>0.66534895833333296</v>
+      </c>
+      <c r="M17">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="O17">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="P17">
+        <v>0.59141145833333297</v>
+      </c>
+      <c r="Q17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -1172,10 +1436,19 @@
       <c r="J18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0.58142329545454596</v>
+      </c>
+      <c r="P18">
+        <v>0.58142329545454596</v>
+      </c>
+      <c r="Q18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1189,9 +1462,6 @@
       <c r="E19" s="5">
         <v>7281</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
         <v>2</v>
       </c>
@@ -1204,10 +1474,25 @@
       <c r="J19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.67166666666666697</v>
+      </c>
+      <c r="O19">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P19">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -1236,10 +1521,31 @@
       <c r="J20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>9.8237500000000005E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.526035227272727</v>
+      </c>
+      <c r="M20">
+        <v>4.5912500000000002E-2</v>
+      </c>
+      <c r="N20">
+        <v>6.2074999999999998E-2</v>
+      </c>
+      <c r="O20">
+        <v>5.7918749999999998E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.47004772727272698</v>
+      </c>
+      <c r="Q20">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1268,10 +1574,28 @@
       <c r="J21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.62215624999999997</v>
+      </c>
+      <c r="M21">
+        <v>3.15E-2</v>
+      </c>
+      <c r="N21">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="P21">
+        <v>0.58015625000000004</v>
+      </c>
+      <c r="Q21">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>18</v>
@@ -1285,9 +1609,6 @@
       <c r="E22" s="5">
         <v>14232</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>2</v>
       </c>
@@ -1300,10 +1621,22 @@
       <c r="J22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>3.11111111111111E-2</v>
+      </c>
+      <c r="L22">
+        <v>0.51131944444444399</v>
+      </c>
+      <c r="P22">
+        <v>0.48020833333333302</v>
+      </c>
+      <c r="Q22">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>11</v>
@@ -1332,10 +1665,19 @@
       <c r="J23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>0.30454545454545501</v>
+      </c>
+      <c r="P23">
+        <v>0.30454545454545501</v>
+      </c>
+      <c r="Q23">
+        <v>0.63636363636363602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -1364,10 +1706,25 @@
       <c r="J24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>0.01</v>
+      </c>
+      <c r="L24">
+        <v>0.24349634740259701</v>
+      </c>
+      <c r="M24">
+        <v>0.01</v>
+      </c>
+      <c r="P24">
+        <v>0.233496347402597</v>
+      </c>
+      <c r="Q24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -1381,9 +1738,6 @@
       <c r="E25" s="5">
         <v>26077</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
         <v>3</v>
       </c>
@@ -1396,10 +1750,31 @@
       <c r="J25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0.22721153846153799</v>
+      </c>
+      <c r="L25">
+        <v>0.42259615384615401</v>
+      </c>
+      <c r="M25">
+        <v>0.15509615384615399</v>
+      </c>
+      <c r="N25">
+        <v>0.211057692307692</v>
+      </c>
+      <c r="O25">
+        <v>0.150480769230769</v>
+      </c>
+      <c r="P25">
+        <v>0.19538461538461499</v>
+      </c>
+      <c r="Q25">
+        <v>0.230769230769231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1413,9 +1788,6 @@
       <c r="E26" s="5">
         <v>13719</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
         <v>4</v>
       </c>
@@ -1428,10 +1800,19 @@
       <c r="J26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="P26">
+        <v>-0.78749999999999998</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -1445,9 +1826,6 @@
       <c r="E27" s="5">
         <v>27462</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
         <v>2</v>
       </c>
@@ -1460,10 +1838,19 @@
       <c r="J27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>0.72256944444444404</v>
+      </c>
+      <c r="P27">
+        <v>0.72256944444444404</v>
+      </c>
+      <c r="Q27">
+        <v>0.86666666666666703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -1477,9 +1864,6 @@
       <c r="E28" s="5">
         <v>7164</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
         <v>4</v>
       </c>
@@ -1492,10 +1876,28 @@
       <c r="J28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>8.5479166666666606E-2</v>
+      </c>
+      <c r="L28">
+        <v>0.79533253968254003</v>
+      </c>
+      <c r="M28">
+        <v>4.1976190476190403E-2</v>
+      </c>
+      <c r="O28">
+        <v>2.0714285714285699E-2</v>
+      </c>
+      <c r="P28">
+        <v>0.76088690476190501</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1509,9 +1911,6 @@
       <c r="E29" s="5">
         <v>21681</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
         <v>5</v>
       </c>
@@ -1524,10 +1923,25 @@
       <c r="J29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0.26124999999999998</v>
+      </c>
+      <c r="L29">
+        <v>0.65008333333333301</v>
+      </c>
+      <c r="N29">
+        <v>0.78374999999999995</v>
+      </c>
+      <c r="O29">
+        <v>0.78374999999999995</v>
+      </c>
+      <c r="P29">
+        <v>-0.13366666666666599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -1556,10 +1970,31 @@
       <c r="J30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>5.2531250000000002E-2</v>
+      </c>
+      <c r="L30">
+        <v>0.65930989583333299</v>
+      </c>
+      <c r="M30">
+        <v>2.2390625000000001E-2</v>
+      </c>
+      <c r="N30">
+        <v>1.528125E-2</v>
+      </c>
+      <c r="O30">
+        <v>2.2390625000000001E-2</v>
+      </c>
+      <c r="P30">
+        <v>0.59597656249999997</v>
+      </c>
+      <c r="Q30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -1573,9 +2008,6 @@
       <c r="E31" s="5">
         <v>90678</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
       <c r="G31">
         <v>2</v>
       </c>
@@ -1588,10 +2020,25 @@
       <c r="J31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>2.963E-2</v>
+      </c>
+      <c r="L31">
+        <v>0.52310049999999997</v>
+      </c>
+      <c r="M31">
+        <v>7.1250000000000003E-3</v>
+      </c>
+      <c r="P31">
+        <v>0.51051250000000004</v>
+      </c>
+      <c r="Q31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -1620,10 +2067,22 @@
       <c r="J32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>2.1052631578947399E-2</v>
+      </c>
+      <c r="L32">
+        <v>0.51798245614035099</v>
+      </c>
+      <c r="P32">
+        <v>0.52850877192982404</v>
+      </c>
+      <c r="Q32">
+        <v>0.68421052631578905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -1652,10 +2111,31 @@
       <c r="J33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="L33">
+        <v>0.51125612745098004</v>
+      </c>
+      <c r="M33">
+        <v>2.6249999999999999E-2</v>
+      </c>
+      <c r="N33">
+        <v>1.3125E-2</v>
+      </c>
+      <c r="O33">
+        <v>2.6249999999999999E-2</v>
+      </c>
+      <c r="P33">
+        <v>0.44813112745097999</v>
+      </c>
+      <c r="Q33">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1684,10 +2164,19 @@
       <c r="J34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="P34">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -1701,61 +2190,307 @@
       <c r="E35" s="5">
         <v>433</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="9">
         <v>3</v>
       </c>
       <c r="J35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="L35">
+        <v>0.65041666666666698</v>
+      </c>
+      <c r="P35">
+        <v>0.65041666666666698</v>
+      </c>
+      <c r="Q35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
         <f>AVERAGE(B2:B35)</f>
         <v>14.588235294117647</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C42" s="2">
         <f>AVERAGE(C2:C35)</f>
         <v>96</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D42" s="6">
         <f>AVERAGE(D2:D35)</f>
         <v>2857.4117647058824</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E42" s="7">
         <f>AVERAGE(E2:E35)</f>
         <v>57522.117647058825</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F42" s="2">
         <f>AVERAGE(F2:F35)</f>
-        <v>0.61764705882352944</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" ref="G36:J36" si="0">AVERAGE(G2:G35)</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <f>AVERAGE(G2:G35)</f>
         <v>2.8235294117647061</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H42" s="2">
+        <f>AVERAGE(H2:H35)</f>
+        <v>2.6470588235294117</v>
+      </c>
+      <c r="I42" s="2">
+        <f>AVERAGE(I2:I35)</f>
+        <v>2.9705882352941178</v>
+      </c>
+      <c r="J42" s="2">
+        <f>AVERAGE(J2:J35)</f>
+        <v>2.6470588235294117</v>
+      </c>
+      <c r="K42" s="2">
+        <f>AVERAGE(K2:K35)</f>
+        <v>9.5328921069933209E-2</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" ref="L42:Q42" si="0">AVERAGE(L2:L35)</f>
+        <v>0.56848898560297978</v>
+      </c>
+      <c r="M42" s="2">
         <f t="shared" si="0"/>
-        <v>2.6470588235294117</v>
-      </c>
-      <c r="I36" s="2">
+        <v>3.2687529332646528E-2</v>
+      </c>
+      <c r="N42" s="2">
         <f t="shared" si="0"/>
-        <v>2.9705882352941178</v>
-      </c>
-      <c r="J36" s="2">
+        <v>9.2608138736263709E-2</v>
+      </c>
+      <c r="O42" s="2">
         <f t="shared" si="0"/>
-        <v>2.6470588235294117</v>
+        <v>8.077967234970912E-2</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4634348127451981</v>
+      </c>
+      <c r="Q42" s="2">
+        <f>AVERAGE(Q2:Q35)</f>
+        <v>0.65094161646193716</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <f>MAX(B2:B35)</f>
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <f>MAX(C2:C35)</f>
+        <v>875</v>
+      </c>
+      <c r="D43" s="2">
+        <f>MAX(D2:D35)</f>
+        <v>17000</v>
+      </c>
+      <c r="E43" s="2">
+        <f>MAX(E2:E35)</f>
+        <v>301328</v>
+      </c>
+      <c r="F43" s="2">
+        <f>MAX(F2:F35)</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <f>MAX(G2:G35)</f>
+        <v>5</v>
+      </c>
+      <c r="H43" s="2">
+        <f>MAX(H2:H35)</f>
+        <v>4</v>
+      </c>
+      <c r="I43" s="2">
+        <f>MAX(I2:I35)</f>
+        <v>5</v>
+      </c>
+      <c r="J43" s="2">
+        <f>MAX(J2:J35)</f>
+        <v>4</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" ref="K43:Q43" si="1">MAX(K2:K35)</f>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15509615384615399</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78374999999999995</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78374999999999995</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <f>MIN(B2:B35)</f>
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <f>MIN(C2:C35)</f>
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <f>MIN(D2:D35)</f>
+        <v>10</v>
+      </c>
+      <c r="E44" s="2">
+        <f>MIN(E2:E35)</f>
+        <v>433</v>
+      </c>
+      <c r="F44" s="2">
+        <f>MIN(F2:F35)</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <f>MIN(G2:G35)</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <f>MIN(H2:H35)</f>
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <f>MIN(I2:I35)</f>
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <f>MIN(J2:J35)</f>
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" ref="K44:Q44" si="2">MIN(K2:K35)</f>
+        <v>0.01</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24349634740259701</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>7.1250000000000003E-3</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="2"/>
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="2"/>
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.78749999999999998</v>
+      </c>
+      <c r="Q44" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <f>STDEV(B2:B35)</f>
+        <v>7.430965706884832</v>
+      </c>
+      <c r="C45" s="2">
+        <f>STDEV(C2:C35)</f>
+        <v>157.39335013483469</v>
+      </c>
+      <c r="D45" s="2">
+        <f>STDEV(D2:D35)</f>
+        <v>3625.289556817012</v>
+      </c>
+      <c r="E45" s="2">
+        <f>STDEV(E2:E35)</f>
+        <v>73376.986145547853</v>
+      </c>
+      <c r="F45" s="2">
+        <f>STDEV(F2:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <f>STDEV(G2:G35)</f>
+        <v>1.2178119533221001</v>
+      </c>
+      <c r="H45" s="2">
+        <f>STDEV(H2:H35)</f>
+        <v>0.88359983199500658</v>
+      </c>
+      <c r="I45" s="2">
+        <f>STDEV(I2:I35)</f>
+        <v>0.71711941094518417</v>
+      </c>
+      <c r="J45" s="2">
+        <f>STDEV(J2:J35)</f>
+        <v>0.73370594973556091</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" ref="K45:Q45" si="3">STDEV(K2:K35)</f>
+        <v>0.15297165484482467</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15040682029136926</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5568310045077933E-2</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20557541568000326</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1845841639548613</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29862921274840981</v>
+      </c>
+      <c r="Q45" s="2">
+        <f t="shared" si="3"/>
+        <v>0.35058634089613233</v>
       </c>
     </row>
   </sheetData>
@@ -1769,8 +2504,9 @@
     <hyperlink ref="A19" r:id="rId7" xr:uid="{7099FA5E-62C3-4FF6-9401-608832187BB3}"/>
     <hyperlink ref="A24" r:id="rId8" xr:uid="{C558DDE5-3A72-4B4C-9134-F4DF89E8E70F}"/>
     <hyperlink ref="A31" r:id="rId9" xr:uid="{1F30FB56-4E96-4C76-8ADD-EEAA0A1C011C}"/>
+    <hyperlink ref="A2" r:id="rId10" xr:uid="{7D46DC9B-6E35-4DF8-86A4-290C186080CF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>